--- a/grpc_tests/SQL/transaction_data.xlsx
+++ b/grpc_tests/SQL/transaction_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>41bd1695-470f-4c72-bb94-e57532b0d24a</t>
+          <t>d548708e-9c41-4f67-a410-567c6d69183e</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -492,7 +492,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0f14b60f-fcef-4920-824f-c1e7a09b3762</t>
+          <t>d1a89399-f72d-4ff8-9d87-9bd00f25695e</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -516,7 +516,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1cbdb36f-b117-49c3-a016-7526656991c4</t>
+          <t>38469945-4b93-457b-8c89-8c5f9619b01f</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -540,7 +540,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24552de1-e639-420d-99f2-42ffa9d5c753</t>
+          <t>064c298e-5d70-4d59-90b3-3fe0d7188dcc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -564,7 +564,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06300efa-e0a2-4bbb-8968-09e65e81649a</t>
+          <t>01ef3188-d9bd-49d8-8b0c-81e1d329c55c</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>66411b2d-e261-471c-9c91-4a4024aa1058</t>
+          <t>2f34b06f-5171-4ab6-9a2e-87cd8d8758c7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -603,16 +603,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>571.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DE-TLR14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Exchange Rate Variance greater than Maximum Variance Limit /Курс покупки/продажи превышает 2.5% от заведенного курса!</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7009bd8a-c7e4-4eba-83ab-42b1b25e0cd1</t>
+          <t>47643114-d9f9-4db3-96dc-1965bd736335</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -627,7 +635,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -636,7 +644,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6706c039-9982-4bb2-8d3a-6d6c6364621c</t>
+          <t>346c6ae9-2260-4dc8-b1ef-b821f8d0942b</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -651,7 +659,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -660,7 +668,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>f39d89f0-a02f-4809-a220-c2b559284e13</t>
+          <t>bea57e63-5d8e-4487-8af3-56094b0ebfb5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -675,7 +683,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -684,7 +692,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5cdd2bf9-47f9-4fa3-a9c9-d943c0e2d854</t>
+          <t>4bbbd834-8312-4d4d-8378-6ef026f33283</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -699,7 +707,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -708,7 +716,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>f4592016-70bc-462a-a5b3-bac4890f2326</t>
+          <t>4aa86fc0-6df7-4570-94a2-7d6cd3c5201f</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -723,7 +731,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -732,7 +740,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>a373b4d1-c5b6-41dd-aebf-0c55edd7aa9b</t>
+          <t>6d081ddd-8fbc-4f81-bb95-da7bcfede8f8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -747,7 +755,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -756,7 +764,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>d232153e-c629-4762-a55c-e26ca3c2e20a</t>
+          <t>ec09f8dc-1dca-4e68-b3a2-626b0690650b</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -771,7 +779,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -780,7 +788,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>e257536f-e087-470d-abe2-70480e3d3082</t>
+          <t>96af2468-d47f-4bc7-9ab3-b5066397a1f3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -795,7 +803,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -804,7 +812,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>29591662-dfc3-461c-b4b8-3a1ed466803a</t>
+          <t>fc9ebac0-c91a-4cc7-a20a-fdb242277220</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -819,7 +827,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -828,7 +836,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>22000140-f2e2-4a82-b6da-68f4cd5ae668</t>
+          <t>02ebe063-6d0e-4415-9a89-aa56ba6639a7</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -843,24 +851,16 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>DE-TLR25</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Account Number is Un-authorized / Счет клиента не авторизован</t>
-        </is>
-      </c>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ff76adfb-9cf2-4dee-b0f1-05159b5e0930</t>
+          <t>b3e11a8d-8dc7-4439-b673-dbd14ffc9315</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -884,7 +884,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>e456346d-2f20-4ef7-96e6-04475cc15c0b</t>
+          <t>78e34cfc-1628-4f6f-9905-b63b9f2d1120</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -908,7 +908,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>d4c50191-c5c2-4143-a04f-9bfe6da31f12</t>
+          <t>f0762a2f-8b74-4077-97d9-8637eaf2f806</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -932,7 +932,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5c195f7c-af92-4257-b97a-b5323436a65d</t>
+          <t>c10c6f55-1a0e-402c-b9f1-c122ee5839b8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -942,12 +942,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_N</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -956,7 +956,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9613bfb1-1367-4648-ba57-ac701103d3bf</t>
+          <t>296992fc-001e-42d1-89db-82b9713ad808</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -966,280 +966,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>adc6007b-cfa9-49f8-9681-48cda0002068</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>771f0f16-779c-4821-91c9-27a10443da71</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_N</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>e26e2582-0eb4-4bad-8e70-0b16b8eb19ee</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_N</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>989ff9e0-75d0-4f95-9986-ef46b3469aec</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>17702803-1589-41fd-a55b-ea9abc0f9518</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>571.43</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>e1849c57-a00a-47e2-a8b6-f23b8e448629</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>9ece2214-2029-49ca-8b4c-8627562c7221</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>322747cb-939f-4544-8fe5-37309ec71298</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_N</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>b645c2e9-7421-463f-b10e-6ec9de9dd0b9</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>e757a62d-a149-41cb-b99c-e54ddd5fd920</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>3caac3cf-771b-4600-8349-b9796f7348a5</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_N</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/grpc_tests/SQL/transaction_data.xlsx
+++ b/grpc_tests/SQL/transaction_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,46 +468,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>d548708e-9c41-4f67-a410-567c6d69183e</t>
+          <t>60214b44-8d34-43d7-9f95-c786154e195b</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GW-ROUT0019</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Failed while logging the message. Possible message id duplication</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>d1a89399-f72d-4ff8-9d87-9bd00f25695e</t>
+          <t>e78adf66-284b-4a6f-97e5-ea2cb0a0dc13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>112.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -516,22 +524,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>38469945-4b93-457b-8c89-8c5f9619b01f</t>
+          <t>22d779d9-333b-4d09-83ce-c1474e015ffb</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_N</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -540,102 +548,110 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>064c298e-5d70-4d59-90b3-3fe0d7188dcc</t>
+          <t>faeb599f-dc9e-47b4-be62-b9d5dd9f186d</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>640.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>DE-TLR14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Exchange Rate Variance greater than Maximum Variance Limit /Курс покупки/продажи превышает 2.5% от заведенного курса!</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01ef3188-d9bd-49d8-8b0c-81e1d329c55c</t>
+          <t>26a5da07-87de-480d-8eb4-71197b0b8c4d</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_N</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>112.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>GW-ROUT0019</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Failed while logging the message. Possible message id duplication</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2f34b06f-5171-4ab6-9a2e-87cd8d8758c7</t>
+          <t>bfea1479-2eb8-470f-b2bf-658cf5208b14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>58.86</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>DE-TLR14</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Exchange Rate Variance greater than Maximum Variance Limit /Курс покупки/продажи превышает 2.5% от заведенного курса!</t>
-        </is>
-      </c>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>47643114-d9f9-4db3-96dc-1965bd736335</t>
+          <t>c91bba4e-2a06-4a51-9bfe-7bd6618d9be9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>102.75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -644,22 +660,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>346c6ae9-2260-4dc8-b1ef-b821f8d0942b</t>
+          <t>a8e865cb-55eb-4a06-a00e-7cb2c9191c5e</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_N</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -668,22 +684,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bea57e63-5d8e-4487-8af3-56094b0ebfb5</t>
+          <t>f46daeb0-8677-45f4-8c53-ece75d966a2c</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CARD_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>112.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -692,22 +708,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4bbbd834-8312-4d4d-8378-6ef026f33283</t>
+          <t>1d61b013-fd9c-45b2-be0f-2bf856c6bb47</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>112.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -716,22 +732,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4aa86fc0-6df7-4570-94a2-7d6cd3c5201f</t>
+          <t>c4df3f54-b4f2-42d9-92c6-49fce19d822d</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FAILURE</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CARD_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -740,22 +756,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6d081ddd-8fbc-4f81-bb95-da7bcfede8f8</t>
+          <t>f7b7739f-f295-4a19-ab00-70a1fbb4f2f3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -764,22 +780,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ec09f8dc-1dca-4e68-b3a2-626b0690650b</t>
+          <t>9a94fec9-59c4-400b-9c66-3ae1b4a3574a</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>102.75</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -788,22 +804,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>96af2468-d47f-4bc7-9ab3-b5066397a1f3</t>
+          <t>b7178008-1d09-4297-9f77-3ecbfcc6a6de</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ON_CONFIRMATION</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_N</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -812,22 +828,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fc9ebac0-c91a-4cc7-a20a-fdb242277220</t>
+          <t>a71a6937-909e-439e-9b2e-8e911a9ae9d2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ON_CONFIRMATION</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_N</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -836,22 +852,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>02ebe063-6d0e-4415-9a89-aa56ba6639a7</t>
+          <t>13867235-6551-4a10-a4de-0f2e308e1265</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>112.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -860,22 +876,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>b3e11a8d-8dc7-4439-b673-dbd14ffc9315</t>
+          <t>65944bf8-ca7a-4382-b0aa-85655f928d46</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -884,46 +900,54 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>78e34cfc-1628-4f6f-9905-b63b9f2d1120</t>
+          <t>15269549-944f-4deb-89ec-f798bf7785f1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_N</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+          <t>640.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>DE-TLR14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Exchange Rate Variance greater than Maximum Variance Limit /Курс покупки/продажи превышает 2.5% от заведенного курса!</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>f0762a2f-8b74-4077-97d9-8637eaf2f806</t>
+          <t>b778cffa-d444-4e37-acff-830c24ffed31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -932,22 +956,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>c10c6f55-1a0e-402c-b9f1-c122ee5839b8</t>
+          <t>ac74b5d6-ed51-46b7-9eec-fea8c8ea89b8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>102.75</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -956,26 +980,402 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>296992fc-001e-42d1-89db-82b9713ad808</t>
+          <t>3324f4a2-863b-4dc6-aad6-d1c70bb95ff6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_N</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3589a8aa-aace-4673-a76b-58694bcdcf30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4634b7ee-0a42-4ff2-9594-2f9c35589c3f</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>112.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>d05e1a73-4862-4864-8968-b0a1020e4ddb</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>eb9e2c28-8edd-4389-bd05-828d148c1b4d</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>640.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>DE-TLR14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Exchange Rate Variance greater than Maximum Variance Limit /Курс покупки/продажи превышает 2.5% от заведенного курса!</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>5af3acc1-a9ac-4acb-8f55-5d11fba0a92c</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>112.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>757c8b04-3360-4870-a8e7-aa6bd8e965fe</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>112.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>59e3da60-fb47-415f-8aae-76626e21fd0c</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>112.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>6fa22ef6-5be5-4ea6-8189-92a8c216dd1f</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>112.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>a48241e8-fd16-42e1-b6f8-9f478eee367e</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>GW-ROUT0019</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Failed while logging the message. Possible message id duplication</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>8e7f7b4a-3771-4cd2-b6ca-0b7db7b088ae</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>eb627bc2-552d-416d-833c-12b1e74cc0e1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>112.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>DE-VALCHK1</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>The value date is earlier than the permitted 0 back value days</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>26654294-a5ad-43e9-aa30-37a6853e9f06</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>112.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>DE-VALCHK1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>The value date is earlier than the permitted 0 back value days</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>a310370f-7f80-4892-aaa4-4816baa6e871</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>DE-TLR15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Exchange Rate Variance greater than Normal Variance Limit</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1993569a-8fd5-41a2-a6d8-5e1976b59f49</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>112.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/grpc_tests/SQL/transaction_data.xlsx
+++ b/grpc_tests/SQL/transaction_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,190 +468,207 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>60214b44-8d34-43d7-9f95-c786154e195b</t>
+          <t>d654d21a-70bb-4d4b-9774-41f4d13d9fa0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>ACCEPTED_NOT_PROCESSED</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>GW-ROUT0019</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Failed while logging the message. Possible message id duplication</t>
-        </is>
-      </c>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>e78adf66-284b-4a6f-97e5-ea2cb0a0dc13</t>
+          <t>d8a239f3-bd94-4d96-88c7-687bc5b5cbfe</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>112.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DE-TLR18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Mismatch In Account And Currency</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>22d779d9-333b-4d09-83ce-c1474e015ffb</t>
+          <t>4821267b-34ad-4512-bf4d-111a9e704756</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>DE-TLR18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mismatch In Account And Currency</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>faeb599f-dc9e-47b4-be62-b9d5dd9f186d</t>
+          <t>0cc72e44-c2b5-44a5-89d2-5f9edb7f89e4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>640.00</t>
+          <t>900.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DE-TLR14</t>
+          <t>DE-TLR18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Exchange Rate Variance greater than Maximum Variance Limit /Курс покупки/продажи превышает 2.5% от заведенного курса!</t>
+          <t>Mismatch In Account And Currency</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26a5da07-87de-480d-8eb4-71197b0b8c4d</t>
+          <t>9d46adeb-38c3-4eb1-8c52-b64e7878bf7c</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>112.00</t>
+          <t>900.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GW-ROUT0019</t>
+          <t>DE-TLR18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Failed while logging the message. Possible message id duplication</t>
+          <t>Mismatch In Account And Currency</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bfea1479-2eb8-470f-b2bf-658cf5208b14</t>
+          <t>9232891a-fb08-43a3-9852-7c772b2b47f3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>AC-OVD02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>"Сумма транзакции не может быть больше доступного баланса - Transaction amount should not be more than customer available balance
+[[Available Amount for Account 1280166042796464 after this Entry is 900.30-, Total Available Amount is 900.30-]]"</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>c91bba4e-2a06-4a51-9bfe-7bd6618d9be9</t>
+          <t>5def386d-1eb4-4766-b2e5-6a5a9768e056</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>ACCEPTED_NOT_PROCESSED</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>102.75</t>
+          <t>900.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -660,22 +677,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>a8e865cb-55eb-4a06-a00e-7cb2c9191c5e</t>
+          <t>f4812e46-69f9-420a-8a1e-3ee894e54c7b</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>ACCEPTED_NOT_PROCESSED</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>900.30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -684,118 +701,152 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>f46daeb0-8677-45f4-8c53-ece75d966a2c</t>
+          <t>5ae503cc-228a-4863-bbb7-0ebbe843269a</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CARD_CURRENT_OTHER_EXCH_N</t>
+          <t>CURRENT_CARD_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>112.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>AC-OVD02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>"Сумма транзакции не может быть больше доступного баланса - Transaction amount should not be more than customer available balance
+[[Available Amount for Account 1280010101232070 after this Entry is 211.31-, Total Available Amount is 211.31-]]"</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1d61b013-fd9c-45b2-be0f-2bf856c6bb47</t>
+          <t>0ee27bad-3134-4080-a66f-3514df41744e</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>112.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>DE-TLR14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Exchange Rate Variance greater than Maximum Variance Limit /Курс покупки/продажи превышает 2.5% от заведенного курса!</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>c4df3f54-b4f2-42d9-92c6-49fce19d822d</t>
+          <t>947669ed-a9cd-4dac-b6ed-a1d3de4a109c</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>AC-OVD02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>"Сумма транзакции не может быть больше доступного баланса - Transaction amount should not be more than customer available balance
+[[Available Amount for Account 1285000000301116 after this Entry is 850.30-, Total Available Amount is 850.30-]]"</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>f7b7739f-f295-4a19-ab00-70a1fbb4f2f3</t>
+          <t>57c5ddbe-7dd1-41f1-a80c-3c5cb9b1a1cb</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>AC-VAC31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Account 1280010301232128 Dormant</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>9a94fec9-59c4-400b-9c66-3ae1b4a3574a</t>
+          <t>2272c7c6-ba21-4e86-adb9-1d61626460e1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CARD_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>102.75</t>
+          <t>900.30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -804,578 +855,421 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>b7178008-1d09-4297-9f77-3ecbfcc6a6de</t>
+          <t>285da7b1-21e7-467b-9783-210f40d5daf6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AC-OVD02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>"Сумма транзакции не может быть больше доступного баланса - Transaction amount should not be more than customer available balance
+[[Available Amount for Account 1285090000630562 after this Entry is 574.93-, Total Available Amount is 574.93-]]"</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>a71a6937-909e-439e-9b2e-8e911a9ae9d2</t>
+          <t>b6a15c86-3801-4901-9342-7c3a099440aa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>AC-VAC31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Account 1280016036872440 Dormant</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>13867235-6551-4a10-a4de-0f2e308e1265</t>
+          <t>339cf6fc-580c-4d6b-b30d-0ee22d7915e5</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>112.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>DE-TLR25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Account Number is Un-authorized / Счет клиента не авторизован</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>65944bf8-ca7a-4382-b0aa-85655f928d46</t>
+          <t>28b13dbe-87ff-49c2-88c2-e66dea3cfd4e</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>DE-TLR25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Account Number is Un-authorized / Счет клиента не авторизован</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>15269549-944f-4deb-89ec-f798bf7785f1</t>
+          <t>dc4678d1-acd8-43af-b4b3-4f33c9acad70</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>640.00</t>
+          <t>900.30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DE-TLR14</t>
+          <t>DE-TLR25</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Exchange Rate Variance greater than Maximum Variance Limit /Курс покупки/продажи превышает 2.5% от заведенного курса!</t>
+          <t>Account Number is Un-authorized / Счет клиента не авторизован</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>b778cffa-d444-4e37-acff-830c24ffed31</t>
+          <t>a59bf680-92f7-4b88-bafd-66db537caa31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>DE-TLR25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Account Number is Un-authorized / Счет клиента не авторизован</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ac74b5d6-ed51-46b7-9eec-fea8c8ea89b8</t>
+          <t>394ef97d-1f72-4ea1-b7eb-1e4eaeeefb63</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>102.75</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>DE-TLR25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Account Number is Un-authorized / Счет клиента не авторизован</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3324f4a2-863b-4dc6-aad6-d1c70bb95ff6</t>
+          <t>10b2f3fb-eca9-4efc-bb5a-7db7a080b1f4</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>AC-VAC31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Account 1280016053352437 Dormant</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3589a8aa-aace-4673-a76b-58694bcdcf30</t>
+          <t>03865529-b6c7-4700-a196-7d7613cedba6</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>AC-VAC31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Account 1280096036935154 Dormant</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4634b7ee-0a42-4ff2-9594-2f9c35589c3f</t>
+          <t>44604728-35a8-4d58-b4f3-199ec9e6c5ac</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>112.00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>AC-OVD02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>"Сумма транзакции не может быть больше доступного баланса - Transaction amount should not be more than customer available balance
+[[Available Amount for Account 1280096029979042 after this Entry is 900.30-, Total Available Amount is 900.30-]]"</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>d05e1a73-4862-4864-8968-b0a1020e4ddb</t>
+          <t>237c0fd5-08f3-4c30-badf-e83032f59ac6</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>DE-TLR18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Mismatch In Account And Currency</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>eb9e2c28-8edd-4389-bd05-828d148c1b4d</t>
+          <t>ee45d3fb-50b8-47fd-951f-acbc540a1e7a</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>640.00</t>
+          <t>900.30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DE-TLR14</t>
+          <t>DE-TLR18</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Exchange Rate Variance greater than Maximum Variance Limit /Курс покупки/продажи превышает 2.5% от заведенного курса!</t>
+          <t>Mismatch In Account And Currency</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5af3acc1-a9ac-4acb-8f55-5d11fba0a92c</t>
+          <t>351c1c7e-f68b-491b-bd54-b09fed25e7d6</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
+          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>112.00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>757c8b04-3360-4870-a8e7-aa6bd8e965fe</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>112.00</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>59e3da60-fb47-415f-8aae-76626e21fd0c</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>112.00</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>6fa22ef6-5be5-4ea6-8189-92a8c216dd1f</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>112.00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>a48241e8-fd16-42e1-b6f8-9f478eee367e</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>GW-ROUT0019</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Failed while logging the message. Possible message id duplication</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>8e7f7b4a-3771-4cd2-b6ca-0b7db7b088ae</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>eb627bc2-552d-416d-833c-12b1e74cc0e1</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>112.00</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>DE-VALCHK1</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>The value date is earlier than the permitted 0 back value days</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>26654294-a5ad-43e9-aa30-37a6853e9f06</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>112.00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>DE-VALCHK1</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>The value date is earlier than the permitted 0 back value days</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>a310370f-7f80-4892-aaa4-4816baa6e871</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>DE-TLR15</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Exchange Rate Variance greater than Normal Variance Limit</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>1993569a-8fd5-41a2-a6d8-5e1976b59f49</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>112.00</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+          <t>900.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>AC-OVD02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>"Сумма транзакции не может быть больше доступного баланса - Transaction amount should not be more than customer available balance
+[[Available Amount for Account 1280166042796464 after this Entry is 900.30-, Total Available Amount is 900.30-]]"</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/grpc_tests/SQL/transaction_data.xlsx
+++ b/grpc_tests/SQL/transaction_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,63 +468,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>d654d21a-70bb-4d4b-9774-41f4d13d9fa0</t>
+          <t>eab387a3-9f32-4946-ac18-4d2107071c57</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>900.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>3000.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AC-VAC31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Account 1280016053352437 Dormant</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>d8a239f3-bd94-4d96-88c7-687bc5b5cbfe</t>
+          <t>6040825f-a3ae-4ad9-ab75-112de9f06ae0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FAILURE</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>900.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DE-TLR18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Mismatch In Account And Currency</t>
-        </is>
-      </c>
+          <t>3000.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4821267b-34ad-4512-bf4d-111a9e704756</t>
+          <t>323a9458-744c-4818-a946-9aaf70506dcc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -534,29 +534,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_N</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>900.30</t>
+          <t>3000.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DE-TLR18</t>
+          <t>DE-TLR25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mismatch In Account And Currency</t>
+          <t>Account Number is Un-authorized / Счет клиента не авторизован</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0cc72e44-c2b5-44a5-89d2-5f9edb7f89e4</t>
+          <t>dd28d01c-99d0-44d4-8ec5-0b447ddd42f8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -566,29 +566,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>900.30</t>
+          <t>3000.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DE-TLR18</t>
+          <t>DE-TLR25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mismatch In Account And Currency</t>
+          <t>Account Number is Un-authorized / Счет клиента не авторизован</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9d46adeb-38c3-4eb1-8c52-b64e7878bf7c</t>
+          <t>9baab448-a2de-4781-91f8-8b501b2f669d</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -598,29 +598,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>900.30</t>
+          <t>3000.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DE-TLR18</t>
+          <t>DE-TLR25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mismatch In Account And Currency</t>
+          <t>Account Number is Un-authorized / Счет клиента не авторизован</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>9232891a-fb08-43a3-9852-7c772b2b47f3</t>
+          <t>f8c8f8d6-c10d-4b35-834d-fb6423a68390</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -630,176 +630,166 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>900.30</t>
+          <t>3000.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AC-OVD02</t>
+          <t>DE-TLR25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>"Сумма транзакции не может быть больше доступного баланса - Transaction amount should not be more than customer available balance
-[[Available Amount for Account 1280166042796464 after this Entry is 900.30-, Total Available Amount is 900.30-]]"</t>
+          <t>Account Number is Un-authorized / Счет клиента не авторизован</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5def386d-1eb4-4766-b2e5-6a5a9768e056</t>
+          <t>8a07c195-14d1-4e55-afed-44697651086a</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>900.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+          <t>3000.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DE-TLR25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Account Number is Un-authorized / Счет клиента не авторизован</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>f4812e46-69f9-420a-8a1e-3ee894e54c7b</t>
+          <t>71492ba3-2513-4844-9afe-70c4e675ac44</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ACCEPTED_NOT_PROCESSED</t>
+          <t>FAILURE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>900.30</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+          <t>3000.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>AC-OVD02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>"Сумма транзакции не может быть больше доступного баланса - Transaction amount should not be more than customer available balance
+[[Available Amount for Account 1280016000192191 after this Entry is 2,140.43-, Total Available Amount is 2,140.43-]]"</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5ae503cc-228a-4863-bbb7-0ebbe843269a</t>
+          <t>420c4f2a-cd55-4e42-969c-142e2333e1f4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FAILURE</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_N</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>900.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>AC-OVD02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>"Сумма транзакции не может быть больше доступного баланса - Transaction amount should not be more than customer available balance
-[[Available Amount for Account 1280010101232070 after this Entry is 211.31-, Total Available Amount is 211.31-]]"</t>
-        </is>
-      </c>
+          <t>3000.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0ee27bad-3134-4080-a66f-3514df41744e</t>
+          <t>3d3c5e6d-5aa0-4148-900b-b04fd796d24f</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FAILURE</t>
+          <t>DECLINED</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>900.30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>DE-TLR14</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Exchange Rate Variance greater than Maximum Variance Limit /Курс покупки/продажи превышает 2.5% от заведенного курса!</t>
-        </is>
-      </c>
+          <t>3000.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>947669ed-a9cd-4dac-b6ed-a1d3de4a109c</t>
+          <t>3372a6ff-4ace-45ad-b86a-5035cd0d1038</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FAILURE</t>
+          <t>CONFIRMED</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>900.30</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>AC-OVD02</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>"Сумма транзакции не может быть больше доступного баланса - Transaction amount should not be more than customer available balance
-[[Available Amount for Account 1285000000301116 after this Entry is 850.30-, Total Available Amount is 850.30-]]"</t>
-        </is>
-      </c>
+          <t>3000.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>57c5ddbe-7dd1-41f1-a80c-3c5cb9b1a1cb</t>
+          <t>4cdf5ee6-1bfc-4229-8c23-3dcb4d12b9ef</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -809,44 +799,45 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>900.30</t>
+          <t>3000.30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AC-VAC31</t>
+          <t>AC-OVD02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Account 1280010301232128 Dormant</t>
+          <t>"Сумма транзакции не может быть больше доступного баланса - Transaction amount should not be more than customer available balance
+[[Available Amount for Account 1280016000192191 after this Entry is 2,140.43-, Total Available Amount is 2,140.43-]]"</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2272c7c6-ba21-4e86-adb9-1d61626460e1</t>
+          <t>50bc1401-823f-4f67-bbfa-7ff79623eee4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FAILURE</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CARD_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>900.30</t>
+          <t>3000.30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -855,7 +846,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>285da7b1-21e7-467b-9783-210f40d5daf6</t>
+          <t>c8efbf43-38a9-4248-8e72-3b37c267dc1f</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -865,30 +856,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>900.30</t>
+          <t>3000.30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AC-OVD02</t>
+          <t>AC-VAC31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>"Сумма транзакции не может быть больше доступного баланса - Transaction amount should not be more than customer available balance
-[[Available Amount for Account 1285090000630562 after this Entry is 574.93-, Total Available Amount is 574.93-]]"</t>
+          <t>Account 1280096036935154 Dormant</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>b6a15c86-3801-4901-9342-7c3a099440aa</t>
+          <t>a5d6fd0b-df79-45e4-bdad-c7eedb1aaf24</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -898,29 +888,30 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>900.30</t>
+          <t>3000.30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AC-VAC31</t>
+          <t>AC-OVD02</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Account 1280016036872440 Dormant</t>
+          <t>"Сумма транзакции не может быть больше доступного баланса - Transaction amount should not be more than customer available balance
+[[Available Amount for Account 1280096029979042 after this Entry is 3,000.30-, Total Available Amount is 3,000.30-]]"</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>339cf6fc-580c-4d6b-b30d-0ee22d7915e5</t>
+          <t>8ecc20c9-c23b-4dc2-abd7-d5f089d49f29</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -930,29 +921,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>900.30</t>
+          <t>3000.30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DE-TLR25</t>
+          <t>DE-TLR18</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Account Number is Un-authorized / Счет клиента не авторизован</t>
+          <t>Mismatch In Account And Currency</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>28b13dbe-87ff-49c2-88c2-e66dea3cfd4e</t>
+          <t>cac6f90f-f578-47fe-bec1-402f1976ca54</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -962,29 +953,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_Y</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>900.30</t>
+          <t>3000.30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DE-TLR25</t>
+          <t>DE-TLR18</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Account Number is Un-authorized / Счет клиента не авторизован</t>
+          <t>Mismatch In Account And Currency</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dc4678d1-acd8-43af-b4b3-4f33c9acad70</t>
+          <t>cbce4552-e662-42cb-a57d-21ba1f6ffe7e</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -994,280 +985,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
+          <t>CURRENT_CURRENT_OTHER_EXCH_N</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>900.30</t>
+          <t>3000.30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DE-TLR25</t>
+          <t>AC-OVD02</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Account Number is Un-authorized / Счет клиента не авторизован</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>a59bf680-92f7-4b88-bafd-66db537caa31</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>FAILURE</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>900.30</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>DE-TLR25</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Account Number is Un-authorized / Счет клиента не авторизован</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>394ef97d-1f72-4ea1-b7eb-1e4eaeeefb63</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>FAILURE</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>900.30</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>DE-TLR25</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Account Number is Un-authorized / Счет клиента не авторизован</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>10b2f3fb-eca9-4efc-bb5a-7db7a080b1f4</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>FAILURE</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>900.30</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>AC-VAC31</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Account 1280016053352437 Dormant</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>03865529-b6c7-4700-a196-7d7613cedba6</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>FAILURE</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>900.30</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>AC-VAC31</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Account 1280096036935154 Dormant</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>44604728-35a8-4d58-b4f3-199ec9e6c5ac</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>FAILURE</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>900.30</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>AC-OVD02</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>"Сумма транзакции не может быть больше доступного баланса - Transaction amount should not be more than customer available balance
-[[Available Amount for Account 1280096029979042 after this Entry is 900.30-, Total Available Amount is 900.30-]]"</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>237c0fd5-08f3-4c30-badf-e83032f59ac6</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>FAILURE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>900.30</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>DE-TLR18</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Mismatch In Account And Currency</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ee45d3fb-50b8-47fd-951f-acbc540a1e7a</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>FAILURE</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>900.30</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>DE-TLR18</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Mismatch In Account And Currency</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>351c1c7e-f68b-491b-bd54-b09fed25e7d6</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>FAILURE</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>CURRENT_CARD_OTHER_EXCH_Y</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>900.30</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>AC-OVD02</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>"Сумма транзакции не может быть больше доступного баланса - Transaction amount should not be more than customer available balance
-[[Available Amount for Account 1280166042796464 after this Entry is 900.30-, Total Available Amount is 900.30-]]"</t>
+[[Available Amount for Account 1280166042796464 after this Entry is 2,149.70-, Total Available Amount is 2,149.70-]]"</t>
         </is>
       </c>
     </row>
